--- a/Code/Results/Cases/Case_8_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.015463144671145</v>
+        <v>0.9032353508236781</v>
       </c>
       <c r="C2">
-        <v>0.3024101805189616</v>
+        <v>0.3564308565256056</v>
       </c>
       <c r="D2">
-        <v>0.05392338112564765</v>
+        <v>0.04726281046837144</v>
       </c>
       <c r="E2">
-        <v>0.2895083673929548</v>
+        <v>0.3046434672712763</v>
       </c>
       <c r="F2">
-        <v>1.362304651310311</v>
+        <v>1.131455737446316</v>
       </c>
       <c r="G2">
-        <v>0.0008237503988552991</v>
+        <v>0.01503882202428763</v>
       </c>
       <c r="H2">
-        <v>0.0004469514173077727</v>
+        <v>5.243599697157819E-05</v>
       </c>
       <c r="I2">
-        <v>0.003268324112024601</v>
+        <v>0.001055741002679689</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8202957316822079</v>
+        <v>0.6366676689704605</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2881198949365356</v>
       </c>
       <c r="M2">
-        <v>1.297275585209519</v>
+        <v>0.1957088344401079</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6781247423163492</v>
+        <v>1.254952984415894</v>
       </c>
       <c r="P2">
-        <v>1.465387297846618</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.6717799913523592</v>
+      </c>
+      <c r="R2">
+        <v>1.208630055417295</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.882888491712265</v>
+        <v>0.7898110975527004</v>
       </c>
       <c r="C3">
-        <v>0.2619500005264968</v>
+        <v>0.3074046737948493</v>
       </c>
       <c r="D3">
-        <v>0.05293310568606557</v>
+        <v>0.04495936430414815</v>
       </c>
       <c r="E3">
-        <v>0.2509715757815201</v>
+        <v>0.2657034890425791</v>
       </c>
       <c r="F3">
-        <v>1.261077352475709</v>
+        <v>1.048578624658717</v>
       </c>
       <c r="G3">
-        <v>0.0008280021728877239</v>
+        <v>0.01978947267724962</v>
       </c>
       <c r="H3">
-        <v>0.001360595467797765</v>
+        <v>0.0004484772821047311</v>
       </c>
       <c r="I3">
-        <v>0.005348688781027455</v>
+        <v>0.001790017436223756</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7779055102067076</v>
+        <v>0.6080748708990527</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.285039975530573</v>
       </c>
       <c r="M3">
-        <v>1.127191584826591</v>
+        <v>0.1785591403801199</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5898902969212543</v>
+        <v>1.092961927347915</v>
       </c>
       <c r="P3">
-        <v>1.465264154101249</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.585365033409424</v>
+      </c>
+      <c r="R3">
+        <v>1.219324926773936</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8013418812483621</v>
+        <v>0.7196669259570001</v>
       </c>
       <c r="C4">
-        <v>0.237531490893133</v>
+        <v>0.2776894591943915</v>
       </c>
       <c r="D4">
-        <v>0.0522880582504115</v>
+        <v>0.04352452232885895</v>
       </c>
       <c r="E4">
-        <v>0.227442282582814</v>
+        <v>0.2418435393676859</v>
       </c>
       <c r="F4">
-        <v>1.199463397159064</v>
+        <v>0.9976912908183095</v>
       </c>
       <c r="G4">
-        <v>0.0008307005446995186</v>
+        <v>0.02313973327223962</v>
       </c>
       <c r="H4">
-        <v>0.002198257748158072</v>
+        <v>0.0009024587009722751</v>
       </c>
       <c r="I4">
-        <v>0.006997406574455578</v>
+        <v>0.002466205440205371</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7519493938420894</v>
+        <v>0.5903108287456433</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2828722334492539</v>
       </c>
       <c r="M4">
-        <v>1.02307333541404</v>
+        <v>0.1686703383168542</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5358001263655012</v>
+        <v>0.9933908874067754</v>
       </c>
       <c r="P4">
-        <v>1.465270487376131</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.532309384314857</v>
+      </c>
+      <c r="R4">
+        <v>1.225776824335945</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7671244459229456</v>
+        <v>0.6901150186022278</v>
       </c>
       <c r="C5">
-        <v>0.2280327747520232</v>
+        <v>0.2660309281511672</v>
       </c>
       <c r="D5">
-        <v>0.05202339346600837</v>
+        <v>0.04295692232051884</v>
       </c>
       <c r="E5">
-        <v>0.2179115565367979</v>
+        <v>0.2321571724374394</v>
       </c>
       <c r="F5">
-        <v>1.173119482098812</v>
+        <v>0.9757583946065296</v>
       </c>
       <c r="G5">
-        <v>0.0008318309808708495</v>
+        <v>0.02462052810114135</v>
       </c>
       <c r="H5">
-        <v>0.002607512472766693</v>
+        <v>0.001138801148120816</v>
       </c>
       <c r="I5">
-        <v>0.007842371679071647</v>
+        <v>0.002884863758250589</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7403378061198609</v>
+        <v>0.5821455891630549</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2815365194240229</v>
       </c>
       <c r="M5">
-        <v>0.9802650031203939</v>
+        <v>0.1645278081779189</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5136822421353742</v>
+        <v>0.9523712426243094</v>
       </c>
       <c r="P5">
-        <v>1.463991875984362</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.5106004526603414</v>
+      </c>
+      <c r="R5">
+        <v>1.227361057047169</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7602882458750742</v>
+        <v>0.6841747117644559</v>
       </c>
       <c r="C6">
-        <v>0.2268968039409174</v>
+        <v>0.2645433072665639</v>
       </c>
       <c r="D6">
-        <v>0.05198834929415064</v>
+        <v>0.04289014551713421</v>
       </c>
       <c r="E6">
-        <v>0.2163670904815191</v>
+        <v>0.2305836670990544</v>
       </c>
       <c r="F6">
-        <v>1.167094555547337</v>
+        <v>0.9706651802637083</v>
       </c>
       <c r="G6">
-        <v>0.0008320302765917938</v>
+        <v>0.02488635339477696</v>
       </c>
       <c r="H6">
-        <v>0.002681713282252085</v>
+        <v>0.001182276155835327</v>
       </c>
       <c r="I6">
-        <v>0.008098260373640365</v>
+        <v>0.003075375226348598</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7371311351210181</v>
+        <v>0.5797218386746508</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2808440774498564</v>
       </c>
       <c r="M6">
-        <v>0.9726216711468396</v>
+        <v>0.1635161416384072</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.5099013156579488</v>
+        <v>0.9450606911936745</v>
       </c>
       <c r="P6">
-        <v>1.4621969809997</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.506893522905699</v>
+      </c>
+      <c r="R6">
+        <v>1.226386336882769</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7977228889383525</v>
+        <v>0.7141747091067145</v>
       </c>
       <c r="C7">
-        <v>0.2385952647728971</v>
+        <v>0.2759477627334093</v>
       </c>
       <c r="D7">
-        <v>0.05231115237470263</v>
+        <v>0.04375600712053895</v>
       </c>
       <c r="E7">
-        <v>0.2274132806487472</v>
+        <v>0.2422249507815337</v>
       </c>
       <c r="F7">
-        <v>1.194576076319095</v>
+        <v>0.9857328090111679</v>
       </c>
       <c r="G7">
-        <v>0.0008307432258668199</v>
+        <v>0.02365108701160534</v>
       </c>
       <c r="H7">
-        <v>0.00220921367786997</v>
+        <v>0.00091448892052437</v>
       </c>
       <c r="I7">
-        <v>0.007291510669399592</v>
+        <v>0.002790549012612331</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7482956721970666</v>
+        <v>0.5831282879429835</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2798084443068163</v>
       </c>
       <c r="M7">
-        <v>1.021019247261847</v>
+        <v>0.1663462486165237</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5352030003160593</v>
+        <v>0.9862210195981902</v>
       </c>
       <c r="P7">
-        <v>1.460939839280243</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.5306858276329081</v>
+      </c>
+      <c r="R7">
+        <v>1.217005076115832</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9655454754633581</v>
+        <v>0.852816719984844</v>
       </c>
       <c r="C8">
-        <v>0.2899545138045312</v>
+        <v>0.3316569834319978</v>
       </c>
       <c r="D8">
-        <v>0.05362928225108732</v>
+        <v>0.0471790766737179</v>
       </c>
       <c r="E8">
-        <v>0.2763205019961248</v>
+        <v>0.2927343468185342</v>
       </c>
       <c r="F8">
-        <v>1.3212658801868</v>
+        <v>1.072189075106763</v>
       </c>
       <c r="G8">
-        <v>0.0008252331849285418</v>
+        <v>0.01874234815268938</v>
       </c>
       <c r="H8">
-        <v>0.0007064655522754926</v>
+        <v>0.0001529278939411682</v>
       </c>
       <c r="I8">
-        <v>0.004237632493816257</v>
+        <v>0.001654334421204773</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8010264614238807</v>
+        <v>0.6093640460065828</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2799822230399656</v>
       </c>
       <c r="M8">
-        <v>1.236570791079288</v>
+        <v>0.1836519812440045</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6472758824675182</v>
+        <v>1.179657925136553</v>
       </c>
       <c r="P8">
-        <v>1.459678541896508</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.6380622927721689</v>
+      </c>
+      <c r="R8">
+        <v>1.190628002176616</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.299680839847468</v>
+        <v>1.134216258697506</v>
       </c>
       <c r="C9">
-        <v>0.3923703672731733</v>
+        <v>0.4522256816688639</v>
       </c>
       <c r="D9">
-        <v>0.05586394836426756</v>
+        <v>0.05296608853941365</v>
       </c>
       <c r="E9">
-        <v>0.3733678235273246</v>
+        <v>0.3906608924001844</v>
       </c>
       <c r="F9">
-        <v>1.582922050907101</v>
+        <v>1.276978313849312</v>
       </c>
       <c r="G9">
-        <v>0.0008150600112274681</v>
+        <v>0.009600944745615791</v>
       </c>
       <c r="H9">
-        <v>0.0001212957758771616</v>
+        <v>0.0004304386254085912</v>
       </c>
       <c r="I9">
-        <v>0.0009992886180798521</v>
+        <v>0.0008164491227748982</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9115469062751842</v>
+        <v>0.6794215676067736</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2867078186232135</v>
       </c>
       <c r="M9">
-        <v>1.665364531023243</v>
+        <v>0.2293236845670634</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8686938502465793</v>
+        <v>1.580083635995919</v>
       </c>
       <c r="P9">
-        <v>1.465692588624762</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.8532582560549571</v>
+      </c>
+      <c r="R9">
+        <v>1.163359730410384</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.540509813082593</v>
+        <v>1.322431010123069</v>
       </c>
       <c r="C10">
-        <v>0.4669812077245581</v>
+        <v>0.5216978334375142</v>
       </c>
       <c r="D10">
-        <v>0.0576061671171626</v>
+        <v>0.05913137566481197</v>
       </c>
       <c r="E10">
-        <v>0.4161737352882326</v>
+        <v>0.4354993281132664</v>
       </c>
       <c r="F10">
-        <v>1.753852895924339</v>
+        <v>1.363809657410869</v>
       </c>
       <c r="G10">
-        <v>0.0008081471324539202</v>
+        <v>0.01319741849517619</v>
       </c>
       <c r="H10">
-        <v>0.001414979459337218</v>
+        <v>0.001879677804316415</v>
       </c>
       <c r="I10">
-        <v>0.0009856563169776678</v>
+        <v>0.001623159843337163</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9776725790755521</v>
+        <v>0.6953407967022613</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2779523736081089</v>
       </c>
       <c r="M10">
-        <v>1.974896951214504</v>
+        <v>0.2523497352232908</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9972954518676431</v>
+        <v>1.835303819419522</v>
       </c>
       <c r="P10">
-        <v>1.448274776262679</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.9707783468584807</v>
+      </c>
+      <c r="R10">
+        <v>1.100815384580635</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.615949835900039</v>
+        <v>1.368504711931706</v>
       </c>
       <c r="C11">
-        <v>0.4662761006094911</v>
+        <v>0.4822866786242912</v>
       </c>
       <c r="D11">
-        <v>0.06198880166635945</v>
+        <v>0.0724797801384014</v>
       </c>
       <c r="E11">
-        <v>0.2186356657367909</v>
+        <v>0.2365495283010475</v>
       </c>
       <c r="F11">
-        <v>1.626361820917367</v>
+        <v>1.173448475240363</v>
       </c>
       <c r="G11">
-        <v>0.0008064226404852307</v>
+        <v>0.04704989046043551</v>
       </c>
       <c r="H11">
-        <v>0.01963759548348065</v>
+        <v>0.01991914217357404</v>
       </c>
       <c r="I11">
-        <v>0.001689393463105482</v>
+        <v>0.002426007233179206</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8821512530362199</v>
+        <v>0.5793593959520678</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2311519563435915</v>
       </c>
       <c r="M11">
-        <v>2.04238924564973</v>
+        <v>0.2133598615224699</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.7700110505601785</v>
+        <v>1.834286836805944</v>
       </c>
       <c r="P11">
-        <v>1.268963690660456</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7347817980805544</v>
+      </c>
+      <c r="R11">
+        <v>0.9361652279751951</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.633542777632954</v>
+        <v>1.380658438001632</v>
       </c>
       <c r="C12">
-        <v>0.4479401834774706</v>
+        <v>0.4442366123089698</v>
       </c>
       <c r="D12">
-        <v>0.0667986836464145</v>
+        <v>0.08357954283085434</v>
       </c>
       <c r="E12">
-        <v>0.09793679277853329</v>
+        <v>0.1114639861145506</v>
       </c>
       <c r="F12">
-        <v>1.493225442515921</v>
+        <v>1.035017592010021</v>
       </c>
       <c r="G12">
-        <v>0.0008062297774135403</v>
+        <v>0.07166361370976659</v>
       </c>
       <c r="H12">
-        <v>0.057973437433958</v>
+        <v>0.05817789749215052</v>
       </c>
       <c r="I12">
-        <v>0.001710316329571526</v>
+        <v>0.002419693464688066</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7968648147081083</v>
+        <v>0.5028692515268958</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2028806612223057</v>
       </c>
       <c r="M12">
-        <v>2.035305846646196</v>
+        <v>0.1846942036418504</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.5785082815283076</v>
+        <v>1.801017775693396</v>
       </c>
       <c r="P12">
-        <v>1.144038211410688</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5438066807309454</v>
+      </c>
+      <c r="R12">
+        <v>0.8544572436106854</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.602338334995636</v>
+        <v>1.369195089927217</v>
       </c>
       <c r="C13">
-        <v>0.4169482903375012</v>
+        <v>0.4120851303775339</v>
       </c>
       <c r="D13">
-        <v>0.07214480273248114</v>
+        <v>0.09104556899873728</v>
       </c>
       <c r="E13">
-        <v>0.02925198220092895</v>
+        <v>0.03694391878563685</v>
       </c>
       <c r="F13">
-        <v>1.341118993662093</v>
+        <v>0.9324597353418085</v>
       </c>
       <c r="G13">
-        <v>0.0008072384458012892</v>
+        <v>0.06620055903896827</v>
       </c>
       <c r="H13">
-        <v>0.1133942360464317</v>
+        <v>0.1135636749683755</v>
       </c>
       <c r="I13">
-        <v>0.001541035298624038</v>
+        <v>0.002224356283915263</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.709128356561358</v>
+        <v>0.4512101871521139</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1856195053134186</v>
       </c>
       <c r="M13">
-        <v>1.96796747165132</v>
+        <v>0.1629291503905641</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.4041937255242445</v>
+        <v>1.751878506701416</v>
       </c>
       <c r="P13">
-        <v>1.046350621644173</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3769152361799684</v>
+      </c>
+      <c r="R13">
+        <v>0.8176951231240857</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.557587659294171</v>
+        <v>1.349370894879087</v>
       </c>
       <c r="C14">
-        <v>0.3901450004047717</v>
+        <v>0.3917714571845181</v>
       </c>
       <c r="D14">
-        <v>0.07629909002505286</v>
+        <v>0.09431235634126267</v>
       </c>
       <c r="E14">
-        <v>0.01207843678346518</v>
+        <v>0.0160369845991859</v>
       </c>
       <c r="F14">
-        <v>1.22631987031437</v>
+        <v>0.8730507190078924</v>
       </c>
       <c r="G14">
-        <v>0.000808480268144729</v>
+        <v>0.04990714543800223</v>
       </c>
       <c r="H14">
-        <v>0.1625584678769059</v>
+        <v>0.1627002766739736</v>
       </c>
       <c r="I14">
-        <v>0.001463918191734415</v>
+        <v>0.002112578457105663</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6467364662495712</v>
+        <v>0.4237146598651407</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1773425132193545</v>
       </c>
       <c r="M14">
-        <v>1.893521023336717</v>
+        <v>0.15007568270671</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.294656769417962</v>
+        <v>1.709051038445892</v>
       </c>
       <c r="P14">
-        <v>0.9917202582234808</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2743065991691367</v>
+      </c>
+      <c r="R14">
+        <v>0.8070288192482664</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.535076510842288</v>
+        <v>1.337861941942066</v>
       </c>
       <c r="C15">
-        <v>0.3814097833376593</v>
+        <v>0.3876223572354718</v>
       </c>
       <c r="D15">
-        <v>0.07728264932576678</v>
+        <v>0.09410241316735579</v>
       </c>
       <c r="E15">
-        <v>0.01184889654527632</v>
+        <v>0.0151004605081253</v>
       </c>
       <c r="F15">
-        <v>1.192638441212438</v>
+        <v>0.8620166209683759</v>
       </c>
       <c r="G15">
-        <v>0.00080906755619272</v>
+        <v>0.04163304091924402</v>
       </c>
       <c r="H15">
-        <v>0.1750107485165699</v>
+        <v>0.1751392350411152</v>
       </c>
       <c r="I15">
-        <v>0.001542655748028032</v>
+        <v>0.00218338991332967</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6296080301362892</v>
+        <v>0.4195465758187709</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1765639259930722</v>
       </c>
       <c r="M15">
-        <v>1.862203354645231</v>
+        <v>0.1474557337970666</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2684084043127015</v>
+        <v>1.693571795493</v>
       </c>
       <c r="P15">
-        <v>0.981320123470617</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2504580036499213</v>
+      </c>
+      <c r="R15">
+        <v>0.8085173306877529</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.436160172022539</v>
+        <v>1.279547815587279</v>
       </c>
       <c r="C16">
-        <v>0.3568255883992038</v>
+        <v>0.3881674422465551</v>
       </c>
       <c r="D16">
-        <v>0.07521746238462867</v>
+        <v>0.08434445659043632</v>
       </c>
       <c r="E16">
-        <v>0.01054715184601185</v>
+        <v>0.01472276284134688</v>
       </c>
       <c r="F16">
-        <v>1.149843884525211</v>
+        <v>0.8967867426056557</v>
       </c>
       <c r="G16">
-        <v>0.0008118036600573771</v>
+        <v>0.01415121925768936</v>
       </c>
       <c r="H16">
-        <v>0.1620768052635384</v>
+        <v>0.1621111173076883</v>
       </c>
       <c r="I16">
-        <v>0.00161997319267293</v>
+        <v>0.002046550560360849</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6184385626826128</v>
+        <v>0.4462109408102535</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1896867772831428</v>
       </c>
       <c r="M16">
-        <v>1.742872205912306</v>
+        <v>0.1530125743599271</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2548874078309993</v>
+        <v>1.64172188513902</v>
       </c>
       <c r="P16">
-        <v>1.006016474551771</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2438812526649379</v>
+      </c>
+      <c r="R16">
+        <v>0.8469869210220722</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.384038274224139</v>
+        <v>1.241364083720356</v>
       </c>
       <c r="C17">
-        <v>0.3522118521831601</v>
+        <v>0.3961519991208036</v>
       </c>
       <c r="D17">
-        <v>0.07135247986517612</v>
+        <v>0.07662509959524044</v>
       </c>
       <c r="E17">
-        <v>0.01333551101662867</v>
+        <v>0.01911019763504296</v>
       </c>
       <c r="F17">
-        <v>1.177192341526549</v>
+        <v>0.9484069080249782</v>
       </c>
       <c r="G17">
-        <v>0.0008132605159657613</v>
+        <v>0.008652868613713061</v>
       </c>
       <c r="H17">
-        <v>0.1242217859247745</v>
+        <v>0.1241929865990414</v>
       </c>
       <c r="I17">
-        <v>0.001779336029717804</v>
+        <v>0.00203379539705395</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6423392291220935</v>
+        <v>0.4788617132824697</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2038759258168241</v>
       </c>
       <c r="M17">
-        <v>1.690877561821168</v>
+        <v>0.1626554383873078</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2991453960418724</v>
+        <v>1.616554241722952</v>
       </c>
       <c r="P17">
-        <v>1.052634274506715</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.290258644781602</v>
+      </c>
+      <c r="R17">
+        <v>0.8865534590773336</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.368672647339451</v>
+        <v>1.224105380654834</v>
       </c>
       <c r="C18">
-        <v>0.3633314366370826</v>
+        <v>0.416381492101408</v>
       </c>
       <c r="D18">
-        <v>0.06606858818357608</v>
+        <v>0.06889441294651277</v>
       </c>
       <c r="E18">
-        <v>0.04646015202406772</v>
+        <v>0.05454605128898038</v>
       </c>
       <c r="F18">
-        <v>1.273396474933335</v>
+        <v>1.038815349924874</v>
       </c>
       <c r="G18">
-        <v>0.0008136794425237648</v>
+        <v>0.007360223974097746</v>
       </c>
       <c r="H18">
-        <v>0.0713576453639817</v>
+        <v>0.07135912897931007</v>
       </c>
       <c r="I18">
-        <v>0.001595751224695796</v>
+        <v>0.001755056589249904</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7036606265353029</v>
+        <v>0.5304867622459284</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2241654637622474</v>
       </c>
       <c r="M18">
-        <v>1.691605433013535</v>
+        <v>0.1808184221534503</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.412013975598299</v>
+        <v>1.624453208489712</v>
       </c>
       <c r="P18">
-        <v>1.133695253538399</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.4028759630242504</v>
+      </c>
+      <c r="R18">
+        <v>0.9426738754992527</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.377794954224697</v>
+        <v>1.221815196032054</v>
       </c>
       <c r="C19">
-        <v>0.3888952839639614</v>
+        <v>0.4501355114357466</v>
       </c>
       <c r="D19">
-        <v>0.0613132709933204</v>
+        <v>0.06232868606091557</v>
       </c>
       <c r="E19">
-        <v>0.1418720393303374</v>
+        <v>0.1529824503315886</v>
       </c>
       <c r="F19">
-        <v>1.415030314982758</v>
+        <v>1.15636605721474</v>
       </c>
       <c r="G19">
-        <v>0.000813168724268963</v>
+        <v>0.006715443861303072</v>
       </c>
       <c r="H19">
-        <v>0.02617127078278969</v>
+        <v>0.02631766300938665</v>
       </c>
       <c r="I19">
-        <v>0.001661173654376569</v>
+        <v>0.001924025181184952</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7890380851809411</v>
+        <v>0.5945805167917513</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2481458945391637</v>
       </c>
       <c r="M19">
-        <v>1.731918785315258</v>
+        <v>0.2049385944255846</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.593282564854988</v>
+        <v>1.660823174656798</v>
       </c>
       <c r="P19">
-        <v>1.244131210866961</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5822733245345546</v>
+      </c>
+      <c r="R19">
+        <v>1.015332800996617</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.466876671311383</v>
+        <v>1.272739428192438</v>
       </c>
       <c r="C20">
-        <v>0.4507937235544546</v>
+        <v>0.5173594630710738</v>
       </c>
       <c r="D20">
-        <v>0.05730024707984249</v>
+        <v>0.05702839081144617</v>
       </c>
       <c r="E20">
-        <v>0.4038961505241971</v>
+        <v>0.421188412003211</v>
       </c>
       <c r="F20">
-        <v>1.6934964815961</v>
+        <v>1.355334860614605</v>
       </c>
       <c r="G20">
-        <v>0.0008100185634991251</v>
+        <v>0.007103169002594889</v>
       </c>
       <c r="H20">
-        <v>0.000932997666251989</v>
+        <v>0.001410368547771768</v>
       </c>
       <c r="I20">
-        <v>0.00160676570816598</v>
+        <v>0.002257206084129493</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9487726381922883</v>
+        <v>0.6964608584253043</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2821141772135505</v>
       </c>
       <c r="M20">
-        <v>1.888184287902476</v>
+        <v>0.2482598364683994</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9610316854894947</v>
+        <v>1.783198824921868</v>
       </c>
       <c r="P20">
-        <v>1.43908135161054</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.9414888261238303</v>
+      </c>
+      <c r="R20">
+        <v>1.124332456144607</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.659155766353706</v>
+        <v>1.375316000184284</v>
       </c>
       <c r="C21">
-        <v>0.5151023915915118</v>
+        <v>0.524479190603131</v>
       </c>
       <c r="D21">
-        <v>0.05814662794013614</v>
+        <v>0.06595348920136246</v>
       </c>
       <c r="E21">
-        <v>0.4831563301364596</v>
+        <v>0.51121359635885</v>
       </c>
       <c r="F21">
-        <v>1.86543926261109</v>
+        <v>1.313077758672634</v>
       </c>
       <c r="G21">
-        <v>0.0008045575768856898</v>
+        <v>0.06762400421151682</v>
       </c>
       <c r="H21">
-        <v>0.002488714063799469</v>
+        <v>0.002795034154478238</v>
       </c>
       <c r="I21">
-        <v>0.002232285445055382</v>
+        <v>0.00298687199276948</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.024294773486787</v>
+        <v>0.6530949122059013</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2562541581517763</v>
       </c>
       <c r="M21">
-        <v>2.140823092033884</v>
+        <v>0.2440539766551169</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.11486467509782</v>
+        <v>1.888065243077534</v>
       </c>
       <c r="P21">
-        <v>1.460842756492468</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.064466066766514</v>
+      </c>
+      <c r="R21">
+        <v>1.017028438788323</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.787730901752241</v>
+        <v>1.44099435580344</v>
       </c>
       <c r="C22">
-        <v>0.5541494364225912</v>
+        <v>0.5220815559756886</v>
       </c>
       <c r="D22">
-        <v>0.0587499087967629</v>
+        <v>0.07341213704942362</v>
       </c>
       <c r="E22">
-        <v>0.5200456151497619</v>
+        <v>0.5558407581715628</v>
       </c>
       <c r="F22">
-        <v>1.973104222375738</v>
+        <v>1.272923719546668</v>
       </c>
       <c r="G22">
-        <v>0.0008011039695337646</v>
+        <v>0.1561450329784151</v>
       </c>
       <c r="H22">
-        <v>0.0039164970886294</v>
+        <v>0.003938921328293876</v>
       </c>
       <c r="I22">
-        <v>0.002861609334178006</v>
+        <v>0.003293880246307168</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.071287060550119</v>
+        <v>0.6195101749507756</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2384653854514092</v>
       </c>
       <c r="M22">
-        <v>2.304929475687345</v>
+        <v>0.2387052192890238</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.198390062695765</v>
+        <v>1.946653844510081</v>
       </c>
       <c r="P22">
-        <v>1.470212468972292</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.125764449692042</v>
+      </c>
+      <c r="R22">
+        <v>0.9455268976852622</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.722976200495282</v>
+        <v>1.415547369455169</v>
       </c>
       <c r="C23">
-        <v>0.5317796056379507</v>
+        <v>0.5291601858594674</v>
       </c>
       <c r="D23">
-        <v>0.05838234980726398</v>
+        <v>0.06828742775788754</v>
       </c>
       <c r="E23">
-        <v>0.5002120823736504</v>
+        <v>0.5306035453900577</v>
       </c>
       <c r="F23">
-        <v>1.920920232591698</v>
+        <v>1.317163188156329</v>
       </c>
       <c r="G23">
-        <v>0.000802914695241364</v>
+        <v>0.0904900977022578</v>
       </c>
       <c r="H23">
-        <v>0.003123538639709711</v>
+        <v>0.003331326603369211</v>
       </c>
       <c r="I23">
-        <v>0.002189034253630595</v>
+        <v>0.002785291187642258</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.05030986455499</v>
+        <v>0.6498883146528698</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2521370342080189</v>
       </c>
       <c r="M23">
-        <v>2.219083272886479</v>
+        <v>0.2467114400904649</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.154147553770798</v>
+        <v>1.931112614682519</v>
       </c>
       <c r="P23">
-        <v>1.470038598360034</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.096350577453968</v>
+      </c>
+      <c r="R23">
+        <v>0.9958866873697474</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.472274940544935</v>
+        <v>1.276726364820973</v>
       </c>
       <c r="C24">
-        <v>0.4509399518725559</v>
+        <v>0.5187228196871274</v>
       </c>
       <c r="D24">
-        <v>0.05699886932405995</v>
+        <v>0.05628759304165953</v>
       </c>
       <c r="E24">
-        <v>0.4259775911176433</v>
+        <v>0.4435918833219716</v>
       </c>
       <c r="F24">
-        <v>1.717370096848001</v>
+        <v>1.376258413587607</v>
       </c>
       <c r="G24">
-        <v>0.0008099366209273322</v>
+        <v>0.006859840279745733</v>
       </c>
       <c r="H24">
-        <v>0.000899207575823624</v>
+        <v>0.001395900327078037</v>
       </c>
       <c r="I24">
-        <v>0.001121015459426111</v>
+        <v>0.001690145061221671</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.965120288306899</v>
+        <v>0.7095368552287198</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.287032152624306</v>
       </c>
       <c r="M24">
-        <v>1.893330271826471</v>
+        <v>0.2531555863269332</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9868987659563686</v>
+        <v>1.78852058079238</v>
       </c>
       <c r="P24">
-        <v>1.462481804578218</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.967204753347545</v>
+      </c>
+      <c r="R24">
+        <v>1.141278456696263</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.203433543441804</v>
+        <v>1.056669209827874</v>
       </c>
       <c r="C25">
-        <v>0.366374695684641</v>
+        <v>0.425525165785217</v>
       </c>
       <c r="D25">
-        <v>0.05535450666587316</v>
+        <v>0.05130895577580219</v>
       </c>
       <c r="E25">
-        <v>0.3471091135191244</v>
+        <v>0.3636429897793008</v>
       </c>
       <c r="F25">
-        <v>1.503237422814209</v>
+        <v>1.225333695025427</v>
       </c>
       <c r="G25">
-        <v>0.0008177869615369034</v>
+        <v>0.0105455127395464</v>
       </c>
       <c r="H25">
-        <v>1.01236788019321E-06</v>
+        <v>0.0001461331361016782</v>
       </c>
       <c r="I25">
-        <v>0.001951306175295819</v>
+        <v>0.001325942432286453</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.875183321351507</v>
+        <v>0.6613380595435814</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.285395661419507</v>
       </c>
       <c r="M25">
-        <v>1.546102220998222</v>
+        <v>0.2166691668269891</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8080519876375973</v>
+        <v>1.476880198532456</v>
       </c>
       <c r="P25">
-        <v>1.456345647371919</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.7959927832510871</v>
+      </c>
+      <c r="R25">
+        <v>1.172439781851807</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
